--- a/DataBase/leg.xlsx
+++ b/DataBase/leg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\하현우\code\Dev-Dream\HealthTag\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B72E41E-E1A1-41B7-90CC-0A84D6EF0CF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89907493-4310-4403-86E1-787C34940333}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A7161FA-99E3-4C9A-B331-E2D46EF642BD}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{3A7161FA-99E3-4C9A-B331-E2D46EF642BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>권태감(쇠약감)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>크론병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,19 +65,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>통증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하지정맥류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>혈관 돌출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>감기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기력함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈관돌출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리아픔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +452,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -563,5 +563,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>